--- a/xrpgate/src/main/webapp/dev_Requirement/개발요청사항.xlsx
+++ b/xrpgate/src/main/webapp/dev_Requirement/개발요청사항.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18315" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15195" windowHeight="5655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="수정사항" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:V29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>로그아웃 이미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +47,56 @@
   </si>
   <si>
     <t>휴대폰 가맹점 인증 코드 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 이름 노출 되는 탭부분에 “XRP GATE_Admin” 이라고 노출되고 있습니다.
+“XRP GATE”로 변경요청드립니다.</t>
+  </si>
+  <si>
+    <t>회사소개 -&gt; 인사말페이지로 링크요청</t>
+  </si>
+  <si>
+    <t>리플이란? -&gt; “게이트웨이 등록”
+드롭다운 메뉴 삭제요청</t>
+  </si>
+  <si>
+    <t>리플이란? 페이지 안에 있는 왼쪽 사이드 메뉴 수정된 메뉴로 변경요청</t>
+  </si>
+  <si>
+    <t>사이드메뉴 하단에 리플트레이드로 연동되는 링크이미지 삭제요청</t>
+  </si>
+  <si>
+    <t>고객센터 -&gt; 게시판 글 제목에 마우스오버하면 커서로 변하게 변경요청</t>
+  </si>
+  <si>
+    <t>마이페이지-&gt; 버튼 누르면 링크연동 안되고 404에러 노출됨</t>
+  </si>
+  <si>
+    <t>회원정보 -&gt; 회원정보 페이지 adadasdfasdf 등 정확하지 않은 문자 삭제요청</t>
+  </si>
+  <si>
+    <t>회원정보 -&gt; 리플주소검사 버튼 삭제요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트맵 -&gt; 404에러노출 링크요청</t>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리플 비밀번호 복구 페이지 제목이미지 “ripplepwback_title.jpg”로 변경요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 -&gt; 기업고객으로 가입시 개인회원가입창으로 넘어오는 문제 수정요청
+기업고객은 member &gt; mem_join_c.html 페이지로 링크되어야 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,16 +143,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -396,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -446,12 +531,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="68.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
